--- a/resources/OrderAudit.xlsx
+++ b/resources/OrderAudit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -39,24 +39,12 @@
     <t>Delay After Action(Sec)</t>
   </si>
   <si>
-    <t>Operation</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
-    <t>Auditing</t>
-  </si>
-  <si>
-    <t>(//button[@aria-label="Auditing"])[1]</t>
-  </si>
-  <si>
     <t>Order Audit</t>
   </si>
   <si>
-    <t>(//button[@aria-label="Order Audit"])[1]</t>
-  </si>
-  <si>
     <t>visible</t>
   </si>
   <si>
@@ -111,9 +99,6 @@
     <t>7</t>
   </si>
   <si>
-    <t>(//button[@aria-label="Operations"])[1]</t>
-  </si>
-  <si>
     <t>(//input[@ng-model="vm.searchName"])[1]</t>
   </si>
   <si>
@@ -139,6 +124,24 @@
   </si>
   <si>
     <t>Click Order Button</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="Administration" and @ng-click="vm.go(entry.state)"])</t>
+  </si>
+  <si>
+    <t>Xpath Not found.</t>
+  </si>
+  <si>
+    <t>RIM</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="RIM" and @ng-click="vm.go(entry.state)"])</t>
+  </si>
+  <si>
+    <t>(//button[@ng-click="vm.go(entry.state)" and @aria-label="Order Audit"])</t>
   </si>
 </sst>
 </file>
@@ -186,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -209,6 +212,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,12 +510,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -522,7 +529,7 @@
     <col min="7" max="7" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" customHeight="1">
+    <row r="1" spans="1:10" ht="21.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -545,101 +552,106 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="5" customFormat="1" ht="30">
       <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="30">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D6" s="9">
         <v>20170506071751</v>
@@ -655,15 +667,15 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="33.75" customHeight="1">
+    <row r="7" spans="1:10" ht="33.75" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -675,15 +687,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="49.5" customHeight="1">
+    <row r="8" spans="1:10" ht="49.5" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -692,15 +704,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45.75" customHeight="1">
+    <row r="9" spans="1:10" ht="45.75" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -712,20 +724,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -738,21 +750,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" ht="45" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="5">
         <v>1</v>
@@ -766,58 +776,58 @@
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="54.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="54.75" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="54.75" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="54.75" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
